--- a/results/2012年.xlsx
+++ b/results/2012年.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,52 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>營收</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>營業利益</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>稅後淨利</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>營業現金流</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>投資現金流</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>總負債</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>流動負債</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>股價</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>營收</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>營業利益</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>稅後淨利</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>營業現金流</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>投資現金流</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ROE</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ROA</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -553,169 +553,159 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>632638758</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>29.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26704782</v>
       </c>
       <c r="D2" t="n">
-        <v>12.85</v>
+        <v>-1449638</v>
       </c>
       <c r="E2" t="n">
-        <v>28471772</v>
+        <v>-1083637</v>
       </c>
       <c r="F2" t="n">
-        <v>8435862</v>
+        <v>5449456</v>
       </c>
       <c r="G2" t="n">
-        <v>6516802</v>
+        <v>-2720310</v>
       </c>
       <c r="H2" t="n">
-        <v>28914497</v>
+        <v>-4.16</v>
       </c>
       <c r="I2" t="n">
-        <v>-33223372</v>
+        <v>-1.63</v>
       </c>
       <c r="J2" t="n">
-        <v>4.23</v>
+        <v>22055566</v>
       </c>
       <c r="K2" t="n">
-        <v>0.84</v>
+        <v>14945285</v>
       </c>
       <c r="L2" t="n">
-        <v>13224427</v>
+        <v>9772703</v>
       </c>
       <c r="M2" t="n">
-        <v>788559333</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>45912359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18912726</v>
       </c>
       <c r="O2" t="n">
-        <v>0.61</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>10683281.96721311</v>
+        <v>1570488.405797102</v>
       </c>
       <c r="Q2" t="n">
-        <v>155920575</v>
+        <v>23856793</v>
       </c>
       <c r="R2" t="n">
-        <v>14.59481978277075</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+        <v>15.19068393751782</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3142840</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7110281</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2288864212596251</v>
+        <v>-0.04057838779586367</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01677036393658408</v>
+        <v>0.2128556060471648</v>
       </c>
       <c r="W2" t="n">
-        <v>74.99396718438496</v>
+        <v>-15.21453355941276</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04747081712062257</v>
+        <v>-0.02331081081081081</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8804493780162658</v>
+        <v>1.948562692881403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>3777983457</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>14040094</v>
+      </c>
       <c r="D3" t="n">
-        <v>28.6</v>
+        <v>1033709</v>
       </c>
       <c r="E3" t="n">
-        <v>367114663</v>
+        <v>980346</v>
       </c>
       <c r="F3" t="n">
-        <v>33403064</v>
+        <v>1452270</v>
       </c>
       <c r="G3" t="n">
-        <v>28982799</v>
+        <v>-8043992</v>
       </c>
       <c r="H3" t="n">
-        <v>270579836</v>
+        <v>9.59</v>
       </c>
       <c r="I3" t="n">
-        <v>-403872962</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>10.76</v>
+        <v>10356366</v>
       </c>
       <c r="K3" t="n">
-        <v>0.75</v>
+        <v>6880312</v>
       </c>
       <c r="L3" t="n">
-        <v>33744542</v>
+        <v>12184144</v>
       </c>
       <c r="M3" t="n">
-        <v>4083256528</v>
-      </c>
-      <c r="N3" t="inlineStr">
+        <v>23534445</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8846455</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>284984.3023255814</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13178079</v>
+      </c>
+      <c r="R3" t="n">
+        <v>46.2414206412838</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-1509911</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3476054</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06982474618759675</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5177153742100143</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10.01864741431099</v>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9502557.049180329</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>305273071</v>
-      </c>
-      <c r="R3" t="n">
-        <v>32.12536051297185</v>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>0.07894753852422397</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.008264124913192327</v>
-      </c>
-      <c r="W3" t="n">
-        <v>113.1029014883186</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1066433566433566</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.8902623828439732</v>
       </c>
     </row>
     <row r="4">
@@ -723,83 +713,7949 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>611235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214841</v>
+      </c>
+      <c r="E4" t="n">
+        <v>164310</v>
+      </c>
+      <c r="F4" t="n">
+        <v>257510</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-119417</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82272</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76476</v>
+      </c>
+      <c r="L4" t="n">
+        <v>504605</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1632574</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1025925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>75718.89400921659</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1550302</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20.47444063051549</v>
+      </c>
+      <c r="S4" t="n">
+        <v>943653</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5796</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2688164126727036</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3090855299667886</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.3829436653152797</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0332312404287902</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.189342320916727</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2092075</v>
+      </c>
+      <c r="D5" t="n">
+        <v>387571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>304230</v>
+      </c>
+      <c r="F5" t="n">
+        <v>132592</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-145417</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>470452</v>
+      </c>
+      <c r="K5" t="n">
+        <v>432172</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1490136</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3351646</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1773303</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="P5" t="n">
+        <v>67757.23830734966</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2881194</v>
+      </c>
+      <c r="R5" t="n">
+        <v>42.52230568977419</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1302851</v>
+      </c>
+      <c r="T5" t="n">
+        <v>38280</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1454202167704313</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4445982660459965</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.213847269274533</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.03338289962825279</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.163045790161485</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17162545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2379566</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2329809</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5859159</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1251517</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3696842</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3187175</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7547491</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24727400</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16102675</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1553206</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21030558</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13.54009577609152</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12405833</v>
+      </c>
+      <c r="T6" t="n">
+        <v>509667</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1357496222151202</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3052278444155067</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.553578257547805</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.129977235982041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19089330</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1212604</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2360471</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1313012</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-9196664</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-12.51</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19580806</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10706483</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18053170</v>
+      </c>
+      <c r="M7" t="n">
+        <v>38335784</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11653889</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>481728.775510204</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18754978</v>
+      </c>
+      <c r="R7" t="n">
+        <v>38.93265039053647</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-7926917</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8874323</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1236539469955205</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4709221546114721</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-16.14773330782349</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.09496124031007752</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.325365714442668</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>210</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33091069</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3159723</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2695384</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3740472</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-301643</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4972602</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4970574</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1398554</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17288024</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15568426</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>179692.2666666667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12315422</v>
+      </c>
+      <c r="R8" t="n">
+        <v>68.53618259958508</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10595824</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2028</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.08145351847049728</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.08089727316435932</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.573746179649292</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.064074946031082</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>484409</v>
+      </c>
+      <c r="D9" t="n">
+        <v>153902</v>
+      </c>
+      <c r="E9" t="n">
+        <v>135670</v>
+      </c>
+      <c r="F9" t="n">
+        <v>175060</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-56185</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="J9" t="n">
+        <v>89888</v>
+      </c>
+      <c r="K9" t="n">
+        <v>89888</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6423</v>
+      </c>
+      <c r="M9" t="n">
+        <v>515157</v>
+      </c>
+      <c r="N9" t="n">
+        <v>463745</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20872.30769230769</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>425269</v>
+      </c>
+      <c r="R9" t="n">
+        <v>20.37479545957102</v>
+      </c>
+      <c r="S9" t="n">
+        <v>373857</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2800732438910095</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.01246804372259331</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5840599862250003</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>203</v>
+      </c>
+      <c r="C10" t="n">
+        <v>58833402</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4291439</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3302612</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2770461</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-618661</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18006560</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17582399</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5854349</v>
+      </c>
+      <c r="M10" t="n">
+        <v>35382067</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29120257</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>308367.1335200747</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>17375507</v>
+      </c>
+      <c r="R10" t="n">
+        <v>56.34681881189798</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11113697</v>
+      </c>
+      <c r="T10" t="n">
+        <v>424161</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.05613498264132338</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1654609099010524</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.195925888728699</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.05275862068965518</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.602687858522641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8597</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-80900</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-27390</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24153</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-119016</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21409</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21319</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15858</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1426121</v>
+      </c>
+      <c r="N11" t="n">
+        <v>764572</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>130428.5714285714</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1404712</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.76997152245345</v>
+      </c>
+      <c r="S11" t="n">
+        <v>743163</v>
+      </c>
+      <c r="T11" t="n">
+        <v>90</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-3.185995114574852</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01111967357608506</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2646353522867738</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.01031941031941032</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.889512888457868</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11237964</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2457300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1647529</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2890306</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3955831</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9165935</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3586351</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13228466</v>
+      </c>
+      <c r="M12" t="n">
+        <v>23590952</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8864825</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="P12" t="n">
+        <v>672460.8163265305</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14425017</v>
+      </c>
+      <c r="R12" t="n">
+        <v>21.45108926762443</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-301110</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5579584</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1466038688146714</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5607432035807627</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.730083831847963</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.05625717566016075</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.030199933283989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4650924</v>
+      </c>
+      <c r="D13" t="n">
+        <v>192889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>133191</v>
+      </c>
+      <c r="F13" t="n">
+        <v>169673</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-324980</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1551336</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1546580</v>
+      </c>
+      <c r="L13" t="n">
+        <v>700380</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2673623</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1723989</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>61949.3023255814</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1122287</v>
+      </c>
+      <c r="R13" t="n">
+        <v>18.1162169365798</v>
+      </c>
+      <c r="S13" t="n">
+        <v>172653</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4756</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.02863753525105979</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.261959146820625</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.042635920140599</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.06022408963585434</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.970610096190418</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15012758</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3232642</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2624053</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4585629</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1867056</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9360637</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6082873</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9710386</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27486530</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12670339</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>606016.8591224018</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>18125893</v>
+      </c>
+      <c r="R14" t="n">
+        <v>29.90988241853347</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3309702</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3277764</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1747882034733391</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3532779874360277</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.895661505356919</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1133507853403141</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.277169848595915</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17770683</v>
+      </c>
+      <c r="D15" t="n">
+        <v>227931</v>
+      </c>
+      <c r="E15" t="n">
+        <v>304822</v>
+      </c>
+      <c r="F15" t="n">
+        <v>452243</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-824364</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5101558</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4165573</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2573916</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9935895</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5174039</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>229189.4736842105</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4834337</v>
+      </c>
+      <c r="R15" t="n">
+        <v>21.09318950075782</v>
+      </c>
+      <c r="S15" t="n">
+        <v>72481</v>
+      </c>
+      <c r="T15" t="n">
+        <v>935985</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01715308297379453</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2590522544773269</v>
+      </c>
+      <c r="W15" t="n">
+        <v>22.38202789440664</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.09925373134328358</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.6352761396999053</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38352880</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-570382</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1405326</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-168934</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-582398</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9954134</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4416918</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18917935</v>
+      </c>
+      <c r="M16" t="n">
+        <v>45413783</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14653752</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2303813.114754098</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>35459649</v>
+      </c>
+      <c r="R16" t="n">
+        <v>15.39172113089774</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4699618</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5537216</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.03664199403017453</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4165681374749159</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-17.45169728357487</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.02459677419354839</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.611255803629123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C17" t="n">
+        <v>965991</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-41509</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-6840</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-8359</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-5680</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>541711</v>
+      </c>
+      <c r="K17" t="n">
+        <v>530296</v>
+      </c>
+      <c r="L17" t="n">
+        <v>565033</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1382682</v>
+      </c>
+      <c r="N17" t="n">
+        <v>694115</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>62181.81818181818</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>840971</v>
+      </c>
+      <c r="R17" t="n">
+        <v>13.52438742690059</v>
+      </c>
+      <c r="S17" t="n">
+        <v>152404</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11415</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.007080811311906633</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4086500005062625</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-13.05044689103568</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.009205020920502092</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.8835890027988209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>54462055</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1149167</v>
+      </c>
+      <c r="E18" t="n">
+        <v>907826</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3531987</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3168356</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13647277</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11847742</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7118130</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18352554</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8778364</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="P18" t="n">
+        <v>237030.2872062663</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4705277</v>
+      </c>
+      <c r="R18" t="n">
+        <v>19.85095261647056</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-4868913</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1799535</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01666896337275558</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3878550091720204</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11.87579960092832</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.02725978647686833</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.07774597595007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>54</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1437027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>163343</v>
+      </c>
+      <c r="E19" t="n">
+        <v>146149</v>
+      </c>
+      <c r="F19" t="n">
+        <v>107173</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-505165</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="J19" t="n">
+        <v>661028</v>
+      </c>
+      <c r="K19" t="n">
+        <v>508758</v>
+      </c>
+      <c r="L19" t="n">
+        <v>783094</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1768135</v>
+      </c>
+      <c r="N19" t="n">
+        <v>807040</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="P19" t="n">
+        <v>49710.54421768708</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1107107</v>
+      </c>
+      <c r="R19" t="n">
+        <v>22.27106979863016</v>
+      </c>
+      <c r="S19" t="n">
+        <v>146012</v>
+      </c>
+      <c r="T19" t="n">
+        <v>152270</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1017023340549621</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.4428926524275579</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.046870695407823</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.05444444444444444</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.42467023309861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5158822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1034117</v>
+      </c>
+      <c r="E20" t="n">
+        <v>814949</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2557656</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1544828</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3523149</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1754317</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7235881</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11677732</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4255517</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>445327.3224043716</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8154583</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18.31143653161118</v>
+      </c>
+      <c r="S20" t="n">
+        <v>732368</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1768832</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1579719168445819</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6196306782858179</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.406915271676222</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.09312977099236643</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.073099861175722</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7529780</v>
+      </c>
+      <c r="D21" t="n">
+        <v>299423</v>
+      </c>
+      <c r="E21" t="n">
+        <v>120506</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-386238</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-80359</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5172080</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3241795</v>
+      </c>
+      <c r="L21" t="n">
+        <v>654628</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9016119</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8023695</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>401686.6666666667</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3844039</v>
+      </c>
+      <c r="R21" t="n">
+        <v>9.569745074934028</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2851615</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1930285</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01600392043326631</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.07260640637063463</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17.27348934450593</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>911063</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32668</v>
+      </c>
+      <c r="E22" t="n">
+        <v>33790</v>
+      </c>
+      <c r="F22" t="n">
+        <v>36854</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-20407</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="J22" t="n">
+        <v>114291</v>
+      </c>
+      <c r="K22" t="n">
+        <v>112659</v>
+      </c>
+      <c r="L22" t="n">
+        <v>34539</v>
+      </c>
+      <c r="M22" t="n">
+        <v>303026</v>
+      </c>
+      <c r="N22" t="n">
+        <v>255155</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10026.70623145401</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>188735</v>
+      </c>
+      <c r="R22" t="n">
+        <v>18.8232302456348</v>
+      </c>
+      <c r="S22" t="n">
+        <v>140864</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1632</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.03708854382188718</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.113980318520523</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3.49856128321293</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3139385</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-82100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-91177</v>
+      </c>
+      <c r="F23" t="n">
+        <v>639213</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-363008</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2160037</v>
+      </c>
+      <c r="K23" t="n">
+        <v>776126</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4453092</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6016764</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1396755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="P23" t="n">
+        <v>233787.1794871795</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3856727</v>
+      </c>
+      <c r="R23" t="n">
+        <v>16.49674292858945</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-763282</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1383911</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.02904294949488515</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7401141211455194</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-26.30982947624848</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1020934</v>
+      </c>
+      <c r="D24" t="n">
+        <v>118454</v>
+      </c>
+      <c r="E24" t="n">
+        <v>81824</v>
+      </c>
+      <c r="F24" t="n">
+        <v>141691</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-227337</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>526518</v>
+      </c>
+      <c r="K24" t="n">
+        <v>404775</v>
+      </c>
+      <c r="L24" t="n">
+        <v>505841</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1362823</v>
+      </c>
+      <c r="N24" t="n">
+        <v>820806</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>77927.61904761904</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>836305</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10.73181768185374</v>
+      </c>
+      <c r="S24" t="n">
+        <v>294288</v>
+      </c>
+      <c r="T24" t="n">
+        <v>121743</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.08014621905039895</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3711714580690229</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4.444915325780472</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.05048076923076923</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.938161886142587</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>151095</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-20964</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-17684</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17055</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-6494</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-17.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-10.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>72086</v>
+      </c>
+      <c r="K25" t="n">
+        <v>72086</v>
+      </c>
+      <c r="L25" t="n">
+        <v>69176</v>
+      </c>
+      <c r="M25" t="n">
+        <v>171181</v>
+      </c>
+      <c r="N25" t="n">
+        <v>67170</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10221.96531791908</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>99095</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9.694319724044334</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-4916</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.1170389490055925</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.4041102692471711</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-3.438561343255104</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>263628</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-52186</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-56377</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-20424</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-18263</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-10.45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>87472</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49627</v>
+      </c>
+      <c r="L26" t="n">
+        <v>103389</v>
+      </c>
+      <c r="M26" t="n">
+        <v>603643</v>
+      </c>
+      <c r="N26" t="n">
+        <v>364973</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="P26" t="n">
+        <v>58726.04166666667</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>516171</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8.789473721553115</v>
+      </c>
+      <c r="S26" t="n">
+        <v>277501</v>
+      </c>
+      <c r="T26" t="n">
+        <v>37845</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.2138505773286601</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1712750748372797</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-1.676158356647377</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.04571428571428571</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.389221546735481</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1610765</v>
+      </c>
+      <c r="D27" t="n">
+        <v>40625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5074</v>
+      </c>
+      <c r="F27" t="n">
+        <v>282516</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-165986</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>492319</v>
+      </c>
+      <c r="K27" t="n">
+        <v>247690</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1251208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2343778</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1047721</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>126850</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1851459</v>
+      </c>
+      <c r="R27" t="n">
+        <v>14.59565628695309</v>
+      </c>
+      <c r="S27" t="n">
+        <v>555402</v>
+      </c>
+      <c r="T27" t="n">
+        <v>244629</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.003150056029278014</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5338423690298313</v>
+      </c>
+      <c r="W27" t="n">
+        <v>12.11862153846154</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.001194029850746269</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.29520340445022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2865212</v>
+      </c>
+      <c r="D28" t="n">
+        <v>314962</v>
+      </c>
+      <c r="E28" t="n">
+        <v>275551</v>
+      </c>
+      <c r="F28" t="n">
+        <v>369373</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-363521</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1798227</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1698615</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1551111</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4822788</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2988111</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>76541.94444444444</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3024561</v>
+      </c>
+      <c r="R28" t="n">
+        <v>39.51507924122939</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1189884</v>
+      </c>
+      <c r="T28" t="n">
+        <v>99612</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0961712431750251</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.3216212282190302</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.709345889345381</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.06315789473684211</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.442487300911879</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31157118</v>
+      </c>
+      <c r="D29" t="n">
+        <v>274458</v>
+      </c>
+      <c r="E29" t="n">
+        <v>413799</v>
+      </c>
+      <c r="F29" t="n">
+        <v>286538</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-294571</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5552445</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5533691</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4379624</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10009339</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3056489</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P29" t="n">
+        <v>308805.223880597</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4456894</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14.43270273731933</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-2495956</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18754</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.01328104223246836</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.4375537685355647</v>
+      </c>
+      <c r="W29" t="n">
+        <v>20.23058172835188</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.0404833836858006</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.29340273976625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28232210</v>
+      </c>
+      <c r="D30" t="n">
+        <v>605635</v>
+      </c>
+      <c r="E30" t="n">
+        <v>639906</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1346057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-324470</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9170101</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5857410</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3079600</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16114714</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9837470</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="P30" t="n">
+        <v>210495.3947368421</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6944613</v>
+      </c>
+      <c r="R30" t="n">
+        <v>32.99175741437023</v>
+      </c>
+      <c r="S30" t="n">
+        <v>667369</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3312691</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.02266581326789507</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.1911048498906031</v>
+      </c>
+      <c r="W30" t="n">
+        <v>15.14129962766353</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.08272108843537415</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.113914592012391</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>705</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-32459</v>
+      </c>
+      <c r="E31" t="n">
+        <v>59621</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-14758</v>
+      </c>
+      <c r="G31" t="n">
+        <v>178579</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2379</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2379</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5652</v>
+      </c>
+      <c r="M31" t="n">
+        <v>590967</v>
+      </c>
+      <c r="N31" t="n">
+        <v>561489</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P31" t="n">
+        <v>49273.55371900827</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>588588</v>
+      </c>
+      <c r="R31" t="n">
+        <v>11.94531255765586</v>
+      </c>
+      <c r="S31" t="n">
+        <v>559110</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>84.56879432624113</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.009563985806314058</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.07329246125881882</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30945055</v>
+      </c>
+      <c r="D32" t="n">
+        <v>474331</v>
+      </c>
+      <c r="E32" t="n">
+        <v>710956</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4566103</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-365368</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12765941</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9372861</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9971713</v>
+      </c>
+      <c r="M32" t="n">
+        <v>26893414</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16003380</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P32" t="n">
+        <v>740579.1666666667</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14127473</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19.07624955693461</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3237439</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3393080</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.02297478547057034</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.3707864312057964</v>
+      </c>
+      <c r="W32" t="n">
+        <v>26.9135709030192</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.04146868250539957</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.213550909517458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2370895</v>
+      </c>
+      <c r="D33" t="n">
+        <v>265574</v>
+      </c>
+      <c r="E33" t="n">
+        <v>240196</v>
+      </c>
+      <c r="F33" t="n">
+        <v>103442</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-22113</v>
+      </c>
+      <c r="H33" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="J33" t="n">
+        <v>288336</v>
+      </c>
+      <c r="K33" t="n">
+        <v>264604</v>
+      </c>
+      <c r="L33" t="n">
+        <v>146073</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1412613</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1114806</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>46369.88416988417</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1124277</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24.24584447701044</v>
+      </c>
+      <c r="S33" t="n">
+        <v>826470</v>
+      </c>
+      <c r="T33" t="n">
+        <v>23732</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.1013102646890731</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.1034062407750743</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.085708691362859</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1474787</v>
+      </c>
+      <c r="D34" t="n">
+        <v>81891</v>
+      </c>
+      <c r="E34" t="n">
+        <v>46334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>31210</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-29714</v>
+      </c>
+      <c r="H34" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J34" t="n">
+        <v>696122</v>
+      </c>
+      <c r="K34" t="n">
+        <v>668112</v>
+      </c>
+      <c r="L34" t="n">
+        <v>200905</v>
+      </c>
+      <c r="M34" t="n">
+        <v>997229</v>
+      </c>
+      <c r="N34" t="n">
+        <v>751658</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26476.57142857143</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>301107</v>
+      </c>
+      <c r="R34" t="n">
+        <v>11.37258276859326</v>
+      </c>
+      <c r="S34" t="n">
+        <v>55536</v>
+      </c>
+      <c r="T34" t="n">
+        <v>28010</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0314174182441261</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2014632546787147</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8.500592250674677</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34408944</v>
+      </c>
+      <c r="D35" t="n">
+        <v>171209</v>
+      </c>
+      <c r="E35" t="n">
+        <v>430911</v>
+      </c>
+      <c r="F35" t="n">
+        <v>997354</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-656950</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J35" t="n">
+        <v>21231735</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11204835</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12624545</v>
+      </c>
+      <c r="M35" t="n">
+        <v>37900931</v>
+      </c>
+      <c r="N35" t="n">
+        <v>19614015</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1051002.43902439</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>16669196</v>
+      </c>
+      <c r="R35" t="n">
+        <v>15.86028288904205</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1617720</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10026900</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.01252322651924453</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.3330932688698333</v>
+      </c>
+      <c r="W35" t="n">
+        <v>124.0106244414721</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.02447761194029851</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.056097177911792</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1041925</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-62386</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-99247</v>
+      </c>
+      <c r="F36" t="n">
+        <v>132093</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2030</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-3.63</v>
+      </c>
+      <c r="J36" t="n">
+        <v>336046</v>
+      </c>
+      <c r="K36" t="n">
+        <v>32104</v>
+      </c>
+      <c r="L36" t="n">
+        <v>405894</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2648520</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1386619</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="P36" t="n">
+        <v>174117.5438596491</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2312474</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13.28110854736163</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1050573</v>
+      </c>
+      <c r="T36" t="n">
+        <v>303942</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.09525349713271108</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1532531376013774</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-5.38656108742346</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.08108108108108107</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.5293232846437769</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>358536702</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8014977</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6389507</v>
+      </c>
+      <c r="F38" t="n">
+        <v>62945652</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-63243963</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J38" t="n">
+        <v>312392630</v>
+      </c>
+      <c r="K38" t="n">
+        <v>128185555</v>
+      </c>
+      <c r="L38" t="n">
+        <v>436705023</v>
+      </c>
+      <c r="M38" t="n">
+        <v>617891988</v>
+      </c>
+      <c r="N38" t="n">
+        <v>144869380</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>16814492.10526316</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>305499358</v>
+      </c>
+      <c r="R38" t="n">
+        <v>18.1688127174757</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-167523250</v>
+      </c>
+      <c r="T38" t="n">
+        <v>184207075</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.01782106814827565</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.7067659582600058</v>
+      </c>
+      <c r="W38" t="n">
+        <v>38.97611059894495</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.01371841155234657</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.524590540435078</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7935639</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-497649</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-771070</v>
+      </c>
+      <c r="F39" t="n">
+        <v>303482</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-393219</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-12.73</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7942715</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2843649</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9912903</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13588079</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2373437</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="P39" t="n">
+        <v>632024.5901639344</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5645364</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8.932190436665932</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-5569278</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5099066</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.09716545825736277</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.7295293911670664</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-15.96047615889914</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.264642082429501</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.5161108053715824</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4166969</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-25788</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18867</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1164056</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-469016</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1567753</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1163245</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1177458</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5918309</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2102142</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P40" t="n">
+        <v>377340</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4350556</v>
+      </c>
+      <c r="R40" t="n">
+        <v>11.52953834737902</v>
+      </c>
+      <c r="S40" t="n">
+        <v>534389</v>
+      </c>
+      <c r="T40" t="n">
+        <v>404508</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.004527751466353602</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1989517613899511</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-60.79389638591593</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.00687757909215956</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.6305543015651333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1353139</v>
+      </c>
+      <c r="D41" t="n">
+        <v>237396</v>
+      </c>
+      <c r="E41" t="n">
+        <v>201022</v>
+      </c>
+      <c r="F41" t="n">
+        <v>212291</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-51904</v>
+      </c>
+      <c r="H41" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="J41" t="n">
+        <v>285888</v>
+      </c>
+      <c r="K41" t="n">
+        <v>285888</v>
+      </c>
+      <c r="L41" t="n">
+        <v>75028</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1007391</v>
+      </c>
+      <c r="N41" t="n">
+        <v>883935</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="P41" t="n">
+        <v>39885.31746031746</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>721503</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18.08943856891285</v>
+      </c>
+      <c r="S41" t="n">
+        <v>598047</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1485597562408592</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.07447753652752506</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.204266289238235</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.09473684210526315</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.940942572503356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5036</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-48928</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-171852</v>
+      </c>
+      <c r="F42" t="n">
+        <v>773750</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-217309</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="J42" t="n">
+        <v>80993</v>
+      </c>
+      <c r="K42" t="n">
+        <v>77304</v>
+      </c>
+      <c r="L42" t="n">
+        <v>14932</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2138348</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1499242</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="P42" t="n">
+        <v>312458.1818181818</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2057355</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6.584417114726627</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1418249</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3689</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-34.12470214455917</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.006982960678056144</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-1.65535071942446</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.03928571428571429</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.126232247450996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1302121</v>
+      </c>
+      <c r="D43" t="n">
+        <v>71470</v>
+      </c>
+      <c r="E43" t="n">
+        <v>67573</v>
+      </c>
+      <c r="F43" t="n">
+        <v>161556</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-83743</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="J43" t="n">
+        <v>512949</v>
+      </c>
+      <c r="K43" t="n">
+        <v>358579</v>
+      </c>
+      <c r="L43" t="n">
+        <v>494489</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1221708</v>
+      </c>
+      <c r="N43" t="n">
+        <v>699785</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P43" t="n">
+        <v>51191.66666666666</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>708759</v>
+      </c>
+      <c r="R43" t="n">
+        <v>13.84520266970536</v>
+      </c>
+      <c r="S43" t="n">
+        <v>186836</v>
+      </c>
+      <c r="T43" t="n">
+        <v>154370</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0518945627940875</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.4047521993798845</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7.177123268504268</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.1133047210300429</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.8414466929755624</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1580791</v>
+      </c>
+      <c r="D44" t="n">
+        <v>106454</v>
+      </c>
+      <c r="E44" t="n">
+        <v>82287</v>
+      </c>
+      <c r="F44" t="n">
+        <v>173083</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-14530</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>282413</v>
+      </c>
+      <c r="K44" t="n">
+        <v>234964</v>
+      </c>
+      <c r="L44" t="n">
+        <v>360665</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1598259</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1212625</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P44" t="n">
+        <v>79122.11538461538</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1315846</v>
+      </c>
+      <c r="R44" t="n">
+        <v>16.63057153620864</v>
+      </c>
+      <c r="S44" t="n">
+        <v>930212</v>
+      </c>
+      <c r="T44" t="n">
+        <v>47449</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.05205431964124289</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.2256611725633955</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.652911116538599</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0759124087591241</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.8237840756207265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5760802</v>
+      </c>
+      <c r="D46" t="n">
+        <v>559204</v>
+      </c>
+      <c r="E46" t="n">
+        <v>459482</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1022363</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-512696</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3350590</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3271572</v>
+      </c>
+      <c r="L46" t="n">
+        <v>950808</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6908832</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5586852</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="P46" t="n">
+        <v>91712.97405189621</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3558242</v>
+      </c>
+      <c r="R46" t="n">
+        <v>38.79758602077992</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2236262</v>
+      </c>
+      <c r="T46" t="n">
+        <v>79018</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.07976007507288048</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.1376221045757083</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5.991713220935472</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.06317780580075662</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.043941598776971</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1178133</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1204</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8015</v>
+      </c>
+      <c r="F47" t="n">
+        <v>111992</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-42531</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J47" t="n">
+        <v>523321</v>
+      </c>
+      <c r="K47" t="n">
+        <v>496459</v>
+      </c>
+      <c r="L47" t="n">
+        <v>556584</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1509429</v>
+      </c>
+      <c r="N47" t="n">
+        <v>918745</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P47" t="n">
+        <v>47147.05882352941</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>986108</v>
+      </c>
+      <c r="R47" t="n">
+        <v>20.91557829070493</v>
+      </c>
+      <c r="S47" t="n">
+        <v>395424</v>
+      </c>
+      <c r="T47" t="n">
+        <v>26862</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.006803136827505893</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.368738112226544</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-434.6519933554817</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.008478802992518703</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.9586156175710617</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>28572108</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1166421</v>
+      </c>
+      <c r="E48" t="n">
+        <v>580149</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1463669</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-3606600</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24360428</v>
+      </c>
+      <c r="K48" t="n">
+        <v>16430745</v>
+      </c>
+      <c r="L48" t="n">
+        <v>12695164</v>
+      </c>
+      <c r="M48" t="n">
+        <v>35358585</v>
+      </c>
+      <c r="N48" t="n">
+        <v>20920593</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P48" t="n">
+        <v>389361.7449664429</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>10998157</v>
+      </c>
+      <c r="R48" t="n">
+        <v>28.24662962445855</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-3439835</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7929683</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.02030473215346939</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.359040498933993</v>
+      </c>
+      <c r="W48" t="n">
+        <v>20.88476459185834</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0473015873015873</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.1151772943815</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4782888</v>
+      </c>
+      <c r="D49" t="n">
+        <v>49179</v>
+      </c>
+      <c r="E49" t="n">
+        <v>57366</v>
+      </c>
+      <c r="F49" t="n">
+        <v>275204</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1011344</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6651739</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2121284</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4285942</v>
+      </c>
+      <c r="M49" t="n">
+        <v>12522185</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3460105</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P49" t="n">
+        <v>521509.0909090909</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5870446</v>
+      </c>
+      <c r="R49" t="n">
+        <v>11.25665132656975</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-3191634</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4530455</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.01199400864080447</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3422679029258872</v>
+      </c>
+      <c r="W49" t="n">
+        <v>135.2556782366457</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.01112234580384226</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.8785916622162795</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C50" t="n">
+        <v>427515346</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19151819</v>
+      </c>
+      <c r="E50" t="n">
+        <v>18474714</v>
+      </c>
+      <c r="F50" t="n">
+        <v>40134944</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-25324127</v>
+      </c>
+      <c r="H50" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207862221</v>
+      </c>
+      <c r="K50" t="n">
+        <v>119350950</v>
+      </c>
+      <c r="L50" t="n">
+        <v>139430133</v>
+      </c>
+      <c r="M50" t="n">
+        <v>338649742</v>
+      </c>
+      <c r="N50" t="n">
+        <v>124872320</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7244985.882352942</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>130787521</v>
+      </c>
+      <c r="R50" t="n">
+        <v>18.05214297498733</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-82989901</v>
+      </c>
+      <c r="T50" t="n">
+        <v>88511271</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.04321415400138642</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.4117237242720238</v>
+      </c>
+      <c r="W50" t="n">
+        <v>10.85339314244772</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0568561872909699</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.484469575836134</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>17358779</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1184728</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2346355</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1465919</v>
+      </c>
+      <c r="G51" t="n">
+        <v>125608</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="J51" t="n">
+        <v>16566845</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10161140</v>
+      </c>
+      <c r="L51" t="n">
+        <v>25622015</v>
+      </c>
+      <c r="M51" t="n">
+        <v>45947178</v>
+      </c>
+      <c r="N51" t="n">
+        <v>14359305</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2728319.76744186</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>29380333</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10.76865452158774</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-2207540</v>
+      </c>
+      <c r="T51" t="n">
+        <v>6405705</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.1351682050909226</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.5576406672897299</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-13.98366966932494</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.2062350119904077</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.3872350061598198</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>19729171</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-377135</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-830355</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3723024</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-677525</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15166184</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12023844</v>
+      </c>
+      <c r="L52" t="n">
+        <v>29876640</v>
+      </c>
+      <c r="M52" t="n">
+        <v>48738548</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15475522</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3610239.130434782</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>33572364</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9.299207832794409</v>
+      </c>
+      <c r="S52" t="n">
+        <v>309338</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3142340</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.04208767818982358</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.6129981549717074</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-40.21420446259297</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.04893617021276596</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.5054193953408666</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>483609931</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-19344622</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-29473396</v>
+      </c>
+      <c r="F53" t="n">
+        <v>43507820</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-7337313</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-15.88</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>398416294</v>
+      </c>
+      <c r="K53" t="n">
+        <v>237029639</v>
+      </c>
+      <c r="L53" t="n">
+        <v>328297554</v>
+      </c>
+      <c r="M53" t="n">
+        <v>570858240</v>
+      </c>
+      <c r="N53" t="n">
+        <v>174628466</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>7537952.94117647</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>172441946</v>
+      </c>
+      <c r="R53" t="n">
+        <v>22.87649542862315</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-223787828</v>
+      </c>
+      <c r="T53" t="n">
+        <v>161386655</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-0.06094456319177614</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5750947100281849</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-20.59571357868869</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-0.3204918032786885</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.5332984695171147</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>33882225</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-30565158</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-36029337</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-17463074</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1768840</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-286.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>98863362</v>
+      </c>
+      <c r="K54" t="n">
+        <v>87132222</v>
+      </c>
+      <c r="L54" t="n">
+        <v>53604924</v>
+      </c>
+      <c r="M54" t="n">
+        <v>101184273</v>
+      </c>
+      <c r="N54" t="n">
+        <v>34944792</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="P54" t="n">
+        <v>16084525.44642857</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2320911</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1442946518832695</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-63918570</v>
+      </c>
+      <c r="T54" t="n">
+        <v>11731140</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-1.063369864287248</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.5297752546979312</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-3.234511727372716</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.8960000000000001</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>17.32565945702848</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4036516</v>
+      </c>
+      <c r="D55" t="n">
+        <v>99074</v>
+      </c>
+      <c r="E55" t="n">
+        <v>105897</v>
+      </c>
+      <c r="F55" t="n">
+        <v>512492</v>
+      </c>
+      <c r="G55" t="n">
+        <v>61397</v>
+      </c>
+      <c r="H55" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10860191</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2585074</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3086452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>11491530</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2865078</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P55" t="n">
+        <v>320900</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>631339</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.9674010595201</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-7995113</v>
+      </c>
+      <c r="T55" t="n">
+        <v>8275117</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.02623475294040702</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.2685849490885896</v>
+      </c>
+      <c r="W55" t="n">
+        <v>109.6169630781032</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.2214765100671141</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.7573443110595101</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3905395322</v>
+      </c>
+      <c r="D56" t="n">
+        <v>108450481</v>
+      </c>
+      <c r="E56" t="n">
+        <v>91787141</v>
+      </c>
+      <c r="F56" t="n">
+        <v>179805072</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-43089473</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1362672364</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1250024307</v>
+      </c>
+      <c r="L56" t="n">
+        <v>390298219</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2044403517</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1542957442</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="P56" t="n">
+        <v>11430528.14445828</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>681731153</v>
+      </c>
+      <c r="R56" t="n">
+        <v>59.64126454913765</v>
+      </c>
+      <c r="S56" t="n">
+        <v>180285078</v>
+      </c>
+      <c r="T56" t="n">
+        <v>112648057</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.02350265041875318</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.1909105593658593</v>
+      </c>
+      <c r="W56" t="n">
+        <v>12.56492688123716</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.09413833528722157</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.430217830638424</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13103583</v>
+      </c>
+      <c r="D57" t="n">
+        <v>604423</v>
+      </c>
+      <c r="E57" t="n">
+        <v>561134</v>
+      </c>
+      <c r="F57" t="n">
+        <v>342149</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1789186</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8404372</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7442439</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2156712</v>
+      </c>
+      <c r="M57" t="n">
+        <v>16660650</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11634452</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P57" t="n">
+        <v>207827.4074074074</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>8256278</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39.72660826112836</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3230080</v>
+      </c>
+      <c r="T57" t="n">
+        <v>961933</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.04282294392304761</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.1294494512519019</v>
+      </c>
+      <c r="W57" t="n">
+        <v>13.90478522491699</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.08385093167701863</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.8105398726300784</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>126063228</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3042112</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2506291</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6057739</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-5574179</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J58" t="n">
+        <v>79682239</v>
+      </c>
+      <c r="K58" t="n">
+        <v>52341044</v>
+      </c>
+      <c r="L58" t="n">
+        <v>55384695</v>
+      </c>
+      <c r="M58" t="n">
+        <v>114768160</v>
+      </c>
+      <c r="N58" t="n">
+        <v>25603924</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2021202.419354839</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>35085921</v>
+      </c>
+      <c r="R58" t="n">
+        <v>17.35893479248818</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-54078315</v>
+      </c>
+      <c r="T58" t="n">
+        <v>27341195</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.01988122182624103</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.4825789225861946</v>
+      </c>
+      <c r="W58" t="n">
+        <v>26.19306554130814</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0455045871559633</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.569796783371295</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>46.55</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9238426</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1797410</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4350967</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1196413</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-526277</v>
+      </c>
+      <c r="H59" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15228567</v>
+      </c>
+      <c r="K59" t="n">
+        <v>7825407</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4603412</v>
+      </c>
+      <c r="M59" t="n">
+        <v>47777140</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6468883</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1035944.523809524</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>32548573</v>
+      </c>
+      <c r="R59" t="n">
+        <v>31.41922395642164</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-8759684</v>
+      </c>
+      <c r="T59" t="n">
+        <v>7403160</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.4709641014605735</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.09635176990502152</v>
+      </c>
+      <c r="W59" t="n">
+        <v>8.472505994736871</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.09022556390977444</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.481577013632313</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="C60" t="n">
+        <v>650743</v>
+      </c>
+      <c r="D60" t="n">
+        <v>53081</v>
+      </c>
+      <c r="E60" t="n">
+        <v>77867</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-13399</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-6458</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>167648</v>
+      </c>
+      <c r="K60" t="n">
+        <v>41103</v>
+      </c>
+      <c r="L60" t="n">
+        <v>446829</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2406115</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1123107</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>149744.2307692308</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2238467</v>
+      </c>
+      <c r="R60" t="n">
+        <v>14.94860261728332</v>
+      </c>
+      <c r="S60" t="n">
+        <v>955459</v>
+      </c>
+      <c r="T60" t="n">
+        <v>126545</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1196586056246475</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.1857055876381636</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3.158342909892429</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04663677130044843</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.7458891165592001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="C61" t="n">
+        <v>35563727</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1955021</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1294912</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3135586</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1639691</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J61" t="n">
+        <v>21345896</v>
+      </c>
+      <c r="K61" t="n">
+        <v>12205564</v>
+      </c>
+      <c r="L61" t="n">
+        <v>12923799</v>
+      </c>
+      <c r="M61" t="n">
+        <v>39902021</v>
+      </c>
+      <c r="N61" t="n">
+        <v>23875729</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1019615.748031496</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>18556125</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18.19913534664904</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2529833</v>
+      </c>
+      <c r="T61" t="n">
+        <v>9140332</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.03641103194836694</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3238883313704837</v>
+      </c>
+      <c r="W61" t="n">
+        <v>10.91849959667952</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.05812356979405034</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.200606489473863</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="C62" t="n">
+        <v>130269373</v>
+      </c>
+      <c r="D62" t="n">
+        <v>19118480</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15967023</v>
+      </c>
+      <c r="F62" t="n">
+        <v>26861998</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-23579052</v>
+      </c>
+      <c r="H62" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="J62" t="n">
+        <v>87663701</v>
+      </c>
+      <c r="K62" t="n">
+        <v>39463896</v>
+      </c>
+      <c r="L62" t="n">
+        <v>96474623</v>
+      </c>
+      <c r="M62" t="n">
+        <v>151090772</v>
+      </c>
+      <c r="N62" t="n">
+        <v>48687692</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2831032.446808511</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>63427071</v>
+      </c>
+      <c r="R62" t="n">
+        <v>22.40421902317044</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-38976009</v>
+      </c>
+      <c r="T62" t="n">
+        <v>48199805</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.1225692780451166</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.6385209481886822</v>
+      </c>
+      <c r="W62" t="n">
+        <v>4.585286121072387</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.07866108786610877</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.200290084909805</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>90</v>
+      </c>
+      <c r="C63" t="n">
+        <v>220130888</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48913405</v>
+      </c>
+      <c r="E63" t="n">
+        <v>41037742</v>
+      </c>
+      <c r="F63" t="n">
+        <v>67561822</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-38873208</v>
+      </c>
+      <c r="H63" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J63" t="n">
+        <v>69536607</v>
+      </c>
+      <c r="K63" t="n">
+        <v>56783972</v>
+      </c>
+      <c r="L63" t="n">
+        <v>303650145</v>
+      </c>
+      <c r="M63" t="n">
+        <v>439446821</v>
+      </c>
+      <c r="N63" t="n">
+        <v>100995487</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7983996.498054476</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>369910214</v>
+      </c>
+      <c r="R63" t="n">
+        <v>46.33145995118347</v>
+      </c>
+      <c r="S63" t="n">
+        <v>31458880</v>
+      </c>
+      <c r="T63" t="n">
+        <v>12752635</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.1864242786319019</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.6909826866172734</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.421626791265094</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.05711111111111111</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.942524584695309</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24907144</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1021978</v>
+      </c>
+      <c r="E64" t="n">
+        <v>716180</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1063429</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-659465</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6865555</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6173394</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3601196</v>
+      </c>
+      <c r="M64" t="n">
+        <v>16729488</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12471218</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P64" t="n">
+        <v>507929.0780141844</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9863933</v>
+      </c>
+      <c r="R64" t="n">
+        <v>19.41990216146779</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5605663</v>
+      </c>
+      <c r="T64" t="n">
+        <v>692161</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.02875399925418988</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.2152603833422756</v>
+      </c>
+      <c r="W64" t="n">
+        <v>6.717908800385135</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.06064516129032257</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.197225393139814</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2345842</v>
+      </c>
+      <c r="D65" t="n">
+        <v>729310</v>
+      </c>
+      <c r="E65" t="n">
+        <v>815358</v>
+      </c>
+      <c r="F65" t="n">
+        <v>297724</v>
+      </c>
+      <c r="G65" t="n">
+        <v>155732</v>
+      </c>
+      <c r="H65" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5539862</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5494535</v>
+      </c>
+      <c r="L65" t="n">
+        <v>128041</v>
+      </c>
+      <c r="M65" t="n">
+        <v>11876567</v>
+      </c>
+      <c r="N65" t="n">
+        <v>11195669</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P65" t="n">
+        <v>395804.854368932</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6336705</v>
+      </c>
+      <c r="R65" t="n">
+        <v>16.00966974016322</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5655807</v>
+      </c>
+      <c r="T65" t="n">
+        <v>45327</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.3475758384409521</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.01078097736492372</v>
+      </c>
+      <c r="W65" t="n">
+        <v>7.596031865736107</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.1337662337662338</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.9619186560336251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>82</v>
+      </c>
+      <c r="C66" t="n">
+        <v>894413406</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-825459</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2721123</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25005455</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-39848357</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J66" t="n">
+        <v>260156704</v>
+      </c>
+      <c r="K66" t="n">
+        <v>98212002</v>
+      </c>
+      <c r="L66" t="n">
+        <v>178160134</v>
+      </c>
+      <c r="M66" t="n">
+        <v>467024359</v>
+      </c>
+      <c r="N66" t="n">
+        <v>244983889</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9383182.758620691</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>206867655</v>
+      </c>
+      <c r="R66" t="n">
+        <v>22.04664028417679</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-15172815</v>
+      </c>
+      <c r="T66" t="n">
+        <v>161944702</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.003042354890642147</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.3814793180841344</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-315.1661124295695</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.003536585365853658</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.71938757756449</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4947571</v>
+      </c>
+      <c r="D67" t="n">
+        <v>261164</v>
+      </c>
+      <c r="E67" t="n">
+        <v>322765</v>
+      </c>
+      <c r="F67" t="n">
+        <v>365259</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-730652</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5208716</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2446294</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4803927</v>
+      </c>
+      <c r="M67" t="n">
+        <v>10113247</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3879278</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P67" t="n">
+        <v>298856.4814814815</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4904531</v>
+      </c>
+      <c r="R67" t="n">
+        <v>16.41099090669682</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-1329438</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2762422</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.06523706279303521</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.475013316692453</v>
+      </c>
+      <c r="W67" t="n">
+        <v>19.94423427424913</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.06334310850439882</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.038937873827132</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>503153</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-203408</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-193234</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-54453</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-106738</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-31.34</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-16.65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>447786</v>
+      </c>
+      <c r="K68" t="n">
+        <v>365566</v>
+      </c>
+      <c r="L68" t="n">
+        <v>505083</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1085067</v>
+      </c>
+      <c r="N68" t="n">
+        <v>498917</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="P68" t="n">
+        <v>45790.04739336493</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>637281</v>
+      </c>
+      <c r="R68" t="n">
+        <v>13.91745665876605</v>
+      </c>
+      <c r="S68" t="n">
+        <v>51131</v>
+      </c>
+      <c r="T68" t="n">
+        <v>82220</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-0.3840462046335806</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.4654855414458278</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-2.201417840006293</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-0.1935779816513761</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.566378149003902</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>17004822</v>
+      </c>
+      <c r="D69" t="n">
+        <v>801390</v>
+      </c>
+      <c r="E69" t="n">
+        <v>858281</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3174613</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2049878</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11680551</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5832610</v>
+      </c>
+      <c r="L69" t="n">
+        <v>16323106</v>
+      </c>
+      <c r="M69" t="n">
+        <v>28400689</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7886770</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P69" t="n">
+        <v>608709.9290780142</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>16720138</v>
+      </c>
+      <c r="R69" t="n">
+        <v>27.46815387967344</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-3793781</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5847941</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.05047280118545198</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.574743309924629</v>
+      </c>
+      <c r="W69" t="n">
+        <v>14.57536405495452</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.05071942446043165</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.012081122079782</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>209</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29134530</v>
+      </c>
+      <c r="D70" t="n">
+        <v>859818</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4930477</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8496514</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1108505</v>
+      </c>
+      <c r="H70" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6473201</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3147962</v>
+      </c>
+      <c r="L70" t="n">
+        <v>45236</v>
+      </c>
+      <c r="M70" t="n">
+        <v>27143533</v>
+      </c>
+      <c r="N70" t="n">
+        <v>14989003</v>
+      </c>
+      <c r="O70" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="P70" t="n">
+        <v>300089.8965307365</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>20670332</v>
+      </c>
+      <c r="R70" t="n">
+        <v>68.88046628348535</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8515802</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3325239</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.1692313896946338</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.001666547976639592</v>
+      </c>
+      <c r="W70" t="n">
+        <v>7.528571162734439</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.07861244019138756</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.034241945166818</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3985463</v>
+      </c>
+      <c r="D71" t="n">
+        <v>408118</v>
+      </c>
+      <c r="E71" t="n">
+        <v>456606</v>
+      </c>
+      <c r="F71" t="n">
+        <v>827811</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-289051</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3181883</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1465310</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4517520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>6956838</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2255013</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P71" t="n">
+        <v>158543.75</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3774955</v>
+      </c>
+      <c r="R71" t="n">
+        <v>23.81017857846809</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-926870</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1716573</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1145678682752794</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.649363978290137</v>
+      </c>
+      <c r="W71" t="n">
+        <v>7.796477979407916</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.08971962616822429</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.348162925120962</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C72" t="n">
+        <v>141028128</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-1271373</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-418637</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7889442</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-14351909</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>92868997</v>
+      </c>
+      <c r="K72" t="n">
+        <v>30044382</v>
+      </c>
+      <c r="L72" t="n">
+        <v>71944088</v>
+      </c>
+      <c r="M72" t="n">
+        <v>155297838</v>
+      </c>
+      <c r="N72" t="n">
+        <v>55769066</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-10465925</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>62428841</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-5.964961625465499</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-37099931</v>
+      </c>
+      <c r="T72" t="n">
+        <v>62824615</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.002968464560488245</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.4632652258816378</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-73.04622404282614</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.00274914089347079</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>-2.439244527221001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4045636</v>
+      </c>
+      <c r="D73" t="n">
+        <v>226433</v>
+      </c>
+      <c r="E73" t="n">
+        <v>657078</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1158340</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-7137224</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>21375771</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3592834</v>
+      </c>
+      <c r="L73" t="n">
+        <v>26151786</v>
+      </c>
+      <c r="M73" t="n">
+        <v>28960923</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1715128</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>367082.6815642458</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>7585152</v>
+      </c>
+      <c r="R73" t="n">
+        <v>20.66333385077571</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-19660643</v>
+      </c>
+      <c r="T73" t="n">
+        <v>17782937</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.1624164902625941</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.9030025044436601</v>
+      </c>
+      <c r="W73" t="n">
+        <v>94.40218961017166</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.06793168880455408</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.27520564640206</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>240417022</v>
+      </c>
+      <c r="D74" t="n">
+        <v>16299930</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14988716</v>
+      </c>
+      <c r="F74" t="n">
+        <v>32398045</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-28133304</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J74" t="n">
+        <v>167322469</v>
+      </c>
+      <c r="K74" t="n">
+        <v>79372296</v>
+      </c>
+      <c r="L74" t="n">
+        <v>152557507</v>
+      </c>
+      <c r="M74" t="n">
+        <v>339147566</v>
+      </c>
+      <c r="N74" t="n">
+        <v>99192032</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P74" t="n">
+        <v>8663997.687861271</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>171825097</v>
+      </c>
+      <c r="R74" t="n">
+        <v>19.8320802001986</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-68130437</v>
+      </c>
+      <c r="T74" t="n">
+        <v>87950173</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.06234465378245971</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.4498263360675276</v>
+      </c>
+      <c r="W74" t="n">
+        <v>10.26522623103289</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.05844594594594595</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.49253127766716</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1421706</v>
+      </c>
+      <c r="D75" t="n">
+        <v>66118</v>
+      </c>
+      <c r="E75" t="n">
+        <v>91415</v>
+      </c>
+      <c r="F75" t="n">
+        <v>139102</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-127898</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1181483</v>
+      </c>
+      <c r="K75" t="n">
+        <v>394729</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3304386</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4410838</v>
+      </c>
+      <c r="N75" t="n">
+        <v>985714</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P75" t="n">
+        <v>217654.7619047619</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3229355</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14.83705190614232</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-195769</v>
+      </c>
+      <c r="T75" t="n">
+        <v>786754</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.06429951058798374</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.7491515217743204</v>
+      </c>
+      <c r="W75" t="n">
+        <v>17.86930941649778</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.05029940119760479</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.5627802647602267</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1439890</v>
+      </c>
+      <c r="D76" t="n">
+        <v>155622</v>
+      </c>
+      <c r="E76" t="n">
+        <v>120432</v>
+      </c>
+      <c r="F76" t="n">
+        <v>214989</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-113702</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>304661</v>
+      </c>
+      <c r="K76" t="n">
+        <v>245966</v>
+      </c>
+      <c r="L76" t="n">
+        <v>540114</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1303295</v>
+      </c>
+      <c r="N76" t="n">
+        <v>655757</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>64402.13903743315</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>998634</v>
+      </c>
+      <c r="R76" t="n">
+        <v>15.50622409326425</v>
+      </c>
+      <c r="S76" t="n">
+        <v>351096</v>
+      </c>
+      <c r="T76" t="n">
+        <v>58695</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.08363972247880046</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.4144219075497105</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.957698782948426</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C77" t="n">
+        <v>115674763</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3504631</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5873921</v>
+      </c>
+      <c r="F77" t="n">
+        <v>40535119</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-49148413</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J77" t="n">
+        <v>75937973</v>
+      </c>
+      <c r="K77" t="n">
+        <v>40033821</v>
+      </c>
+      <c r="L77" t="n">
+        <v>158854035</v>
+      </c>
+      <c r="M77" t="n">
+        <v>280958918</v>
+      </c>
+      <c r="N77" t="n">
+        <v>80917522</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>9474066.129032258</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>205020945</v>
+      </c>
+      <c r="R77" t="n">
+        <v>21.64022735409618</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4979549</v>
+      </c>
+      <c r="T77" t="n">
+        <v>35904152</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.05077962424699327</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.5653995115399754</v>
+      </c>
+      <c r="W77" t="n">
+        <v>21.66789399511675</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.04940239043824701</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.5799384541874726</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8756960</v>
+      </c>
+      <c r="D78" t="n">
+        <v>513489</v>
+      </c>
+      <c r="E78" t="n">
+        <v>335661</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1306815</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-601139</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5122345</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2427063</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4732903</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9185415</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4258144</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P78" t="n">
+        <v>215167.3076923077</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4063070</v>
+      </c>
+      <c r="R78" t="n">
+        <v>18.88330547784819</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-864201</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2695282</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.03833076775502001</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.515262837879399</v>
+      </c>
+      <c r="W78" t="n">
+        <v>9.975569096903731</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.06680942184154176</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.236541982937873</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2129395</v>
+      </c>
+      <c r="D79" t="n">
+        <v>185582</v>
+      </c>
+      <c r="E79" t="n">
+        <v>166477</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1034707</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-386688</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J79" t="n">
+        <v>636204</v>
+      </c>
+      <c r="K79" t="n">
+        <v>554418</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1553831</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4733707</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2482973</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P79" t="n">
+        <v>369948.8888888889</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4097503</v>
+      </c>
+      <c r="R79" t="n">
+        <v>11.07586243144699</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1846769</v>
+      </c>
+      <c r="T79" t="n">
+        <v>81786</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.07818042213868258</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.3282482418113331</v>
+      </c>
+      <c r="W79" t="n">
+        <v>3.428155747863478</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.04128440366972477</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.9841220101337055</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14522616</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1882619</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1555488</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7235995</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-4591580</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14980226</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5249762</v>
+      </c>
+      <c r="L80" t="n">
+        <v>18706889</v>
+      </c>
+      <c r="M80" t="n">
+        <v>36271107</v>
+      </c>
+      <c r="N80" t="n">
+        <v>13732616</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1187395.419847328</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>21290881</v>
+      </c>
+      <c r="R80" t="n">
+        <v>17.93074206294102</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-1247610</v>
+      </c>
+      <c r="T80" t="n">
+        <v>9730464</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.1071079755878693</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.5157518076302441</v>
+      </c>
+      <c r="W80" t="n">
+        <v>7.957120373267241</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.09703703703703705</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.752896893648456</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>312585403</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4471864</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5816111</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-1564737</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1293336</v>
+      </c>
+      <c r="H81" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>73665620</v>
+      </c>
+      <c r="K81" t="n">
+        <v>68527194</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4655536</v>
+      </c>
+      <c r="M81" t="n">
+        <v>114623553</v>
+      </c>
+      <c r="N81" t="n">
+        <v>94597474</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1576181.842818428</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>40957933</v>
+      </c>
+      <c r="R81" t="n">
+        <v>25.98553789121287</v>
+      </c>
+      <c r="S81" t="n">
+        <v>20931854</v>
+      </c>
+      <c r="T81" t="n">
+        <v>5138426</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.01860647024518928</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.04061587586628029</v>
+      </c>
+      <c r="W81" t="n">
+        <v>16.47313514006687</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.05540540540540541</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.562964071739346</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>28798355</v>
+      </c>
+      <c r="D82" t="n">
+        <v>888827</v>
+      </c>
+      <c r="E82" t="n">
+        <v>722704</v>
+      </c>
+      <c r="F82" t="n">
+        <v>164394</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1359594</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5700075</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5582963</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2862802</v>
+      </c>
+      <c r="M82" t="n">
+        <v>10388785</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6505628</v>
+      </c>
+      <c r="O82" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="P82" t="n">
+        <v>167292.5925925926</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4688710</v>
+      </c>
+      <c r="R82" t="n">
+        <v>28.02700303305365</v>
+      </c>
+      <c r="S82" t="n">
+        <v>805553</v>
+      </c>
+      <c r="T82" t="n">
+        <v>117112</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.02509532228490134</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.2755665845428508</v>
+      </c>
+      <c r="W82" t="n">
+        <v>6.413030882275178</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.06697674418604652</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.301352018406389</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>31545274</v>
+      </c>
+      <c r="D83" t="n">
+        <v>834392</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1040195</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1493739</v>
+      </c>
+      <c r="G83" t="n">
+        <v>39121</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J83" t="n">
+        <v>11507615</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9249464</v>
+      </c>
+      <c r="L83" t="n">
+        <v>947012</v>
+      </c>
+      <c r="M83" t="n">
+        <v>20123213</v>
+      </c>
+      <c r="N83" t="n">
+        <v>15002348</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="P83" t="n">
+        <v>245329.0094339623</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>8615598</v>
+      </c>
+      <c r="R83" t="n">
+        <v>35.11854558039598</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3494733</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2258151</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.03297466999335621</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.04706067564856566</v>
+      </c>
+      <c r="W83" t="n">
+        <v>13.79161712959856</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.1101298701298701</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.096286858231727</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16907389</v>
+      </c>
+      <c r="D84" t="n">
+        <v>83054</v>
+      </c>
+      <c r="E84" t="n">
+        <v>58832</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1171590</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47994</v>
+      </c>
+      <c r="H84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4223383</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4171997</v>
+      </c>
+      <c r="L84" t="n">
+        <v>188818</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5763107</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5481719</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P84" t="n">
+        <v>56030.47619047619</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1539724</v>
+      </c>
+      <c r="R84" t="n">
+        <v>27.48011626325809</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1258336</v>
+      </c>
+      <c r="T84" t="n">
+        <v>51386</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.003479662057813894</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03276322997299894</v>
+      </c>
+      <c r="W84" t="n">
+        <v>50.85104871529366</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.8023983519124207</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3059144</v>
+      </c>
+      <c r="D85" t="n">
+        <v>331819</v>
+      </c>
+      <c r="E85" t="n">
+        <v>276608</v>
+      </c>
+      <c r="F85" t="n">
+        <v>695564</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-519480</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3147737</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1396842</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7234520</v>
+      </c>
+      <c r="M85" t="n">
+        <v>11917192</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3131940</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P85" t="n">
+        <v>359231.1688311688</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>8769455</v>
+      </c>
+      <c r="R85" t="n">
+        <v>24.41173194556918</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-15797</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1750895</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.09042006522085917</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.6070658255736754</v>
+      </c>
+      <c r="W85" t="n">
+        <v>9.486307294036809</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.02583892617449664</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.220724529764829</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2765282</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-33060</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-105449</v>
+      </c>
+      <c r="F86" t="n">
+        <v>551785</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-599735</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5443878</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2316518</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7571612</v>
+      </c>
+      <c r="M86" t="n">
+        <v>10410711</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2225853</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="P86" t="n">
+        <v>329528.125</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4966833</v>
+      </c>
+      <c r="R86" t="n">
+        <v>15.07256171229694</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-3218025</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3127360</v>
+      </c>
+      <c r="U86" t="n">
+        <v>-0.03813318135365579</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.7272905760230978</v>
+      </c>
+      <c r="W86" t="n">
+        <v>-164.6666061705989</v>
+      </c>
+      <c r="X86" t="n">
+        <v>-0.01981424148606811</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.071483421880703</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>330</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5471866</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1168237</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1070079</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1674057</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-207280</v>
+      </c>
+      <c r="H87" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="I87" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2802404</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1700818</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2353028</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5980401</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1299483</v>
+      </c>
+      <c r="O87" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="P87" t="n">
+        <v>95202.75800711743</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3177997</v>
+      </c>
+      <c r="R87" t="n">
+        <v>33.38135434860417</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-1502921</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1101586</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.1955601617437269</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.3934565591839076</v>
+      </c>
+      <c r="W87" t="n">
+        <v>2.398831743901281</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.03406060606060606</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>9.885758275526614</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>913751</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-98520</v>
+      </c>
+      <c r="E88" t="n">
+        <v>577590</v>
+      </c>
+      <c r="F88" t="n">
+        <v>102971</v>
+      </c>
+      <c r="G88" t="n">
+        <v>791421</v>
+      </c>
+      <c r="H88" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>325864</v>
+      </c>
+      <c r="K88" t="n">
+        <v>210708</v>
+      </c>
+      <c r="L88" t="n">
+        <v>628784</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1812032</v>
+      </c>
+      <c r="N88" t="n">
+        <v>920706</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="P88" t="n">
+        <v>87779.63525835866</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1486168</v>
+      </c>
+      <c r="R88" t="n">
+        <v>16.93066957530428</v>
+      </c>
+      <c r="S88" t="n">
+        <v>594842</v>
+      </c>
+      <c r="T88" t="n">
+        <v>115156</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.6321087473502081</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.3470049094055734</v>
+      </c>
+      <c r="W88" t="n">
+        <v>-3.307592367032075</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.543801652892562</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.7146793543032415</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>28</v>
+      </c>
+      <c r="C89" t="n">
+        <v>36846797</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2754763</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2051062</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3925042</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1297863</v>
+      </c>
+      <c r="H89" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9714864</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6061928</v>
+      </c>
+      <c r="L89" t="n">
+        <v>10529105</v>
+      </c>
+      <c r="M89" t="n">
+        <v>20931143</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8986433</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="P89" t="n">
+        <v>653204.4585987261</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>11216279</v>
+      </c>
+      <c r="R89" t="n">
+        <v>17.17116111555867</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-728431</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3652936</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.05566459413012208</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.5030353574097698</v>
+      </c>
+      <c r="W89" t="n">
+        <v>3.526569799289449</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.1121428571428571</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.630641038865414</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>133</v>
+      </c>
+      <c r="C90" t="n">
+        <v>54041401</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3954658</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2990339</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2209806</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2607409</v>
+      </c>
+      <c r="H90" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>23213502</v>
+      </c>
+      <c r="K90" t="n">
+        <v>20804216</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7256229</v>
+      </c>
+      <c r="M90" t="n">
+        <v>38941451</v>
+      </c>
+      <c r="N90" t="n">
+        <v>30002103</v>
+      </c>
+      <c r="O90" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="P90" t="n">
+        <v>372860.2244389027</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>15727949</v>
+      </c>
+      <c r="R90" t="n">
+        <v>42.18189007333282</v>
+      </c>
+      <c r="S90" t="n">
+        <v>6788601</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2409286</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.05533422421820634</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.1863368933016903</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5.869913909116794</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.06030075187969924</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3.153011867623303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="C91" t="n">
+        <v>48730193</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3754345</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3211345</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5645934</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-427317</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>31945646</v>
+      </c>
+      <c r="K91" t="n">
+        <v>17631665</v>
+      </c>
+      <c r="L91" t="n">
+        <v>14859315</v>
+      </c>
+      <c r="M91" t="n">
+        <v>72407417</v>
+      </c>
+      <c r="N91" t="n">
+        <v>37510159</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1970150.306748466</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>40461771</v>
+      </c>
+      <c r="R91" t="n">
+        <v>20.53740309122813</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5564513</v>
+      </c>
+      <c r="T91" t="n">
+        <v>14313981</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.06590051880155698</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.2052181339378533</v>
+      </c>
+      <c r="W91" t="n">
+        <v>8.508979861999896</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.08170426065162907</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.9713983755093643</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3848815</v>
+      </c>
+      <c r="D92" t="n">
+        <v>134495</v>
+      </c>
+      <c r="E92" t="n">
+        <v>110243</v>
+      </c>
+      <c r="F92" t="n">
+        <v>460309</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-7393</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1859764</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1556177</v>
+      </c>
+      <c r="L92" t="n">
+        <v>996625</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4322623</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2821328</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P92" t="n">
+        <v>190074.1379310345</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2462859</v>
+      </c>
+      <c r="R92" t="n">
+        <v>12.95735983237031</v>
+      </c>
+      <c r="S92" t="n">
+        <v>961564</v>
+      </c>
+      <c r="T92" t="n">
+        <v>303587</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.02864336165806878</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.2305602408537594</v>
+      </c>
+      <c r="W92" t="n">
+        <v>13.82775567864976</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.07116564417177913</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.6289861596372067</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19829471</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1138313</v>
+      </c>
+      <c r="E93" t="n">
+        <v>999841</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1313031</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-637483</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10433989</v>
+      </c>
+      <c r="K93" t="n">
+        <v>7030896</v>
+      </c>
+      <c r="L93" t="n">
+        <v>13705392</v>
+      </c>
+      <c r="M93" t="n">
+        <v>30323291</v>
+      </c>
+      <c r="N93" t="n">
+        <v>10554110</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P93" t="n">
+        <v>543391.8478260869</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>19889302</v>
+      </c>
+      <c r="R93" t="n">
+        <v>36.60213541953171</v>
+      </c>
+      <c r="S93" t="n">
+        <v>120121</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3403093</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.05042197040959893</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.4519757436618604</v>
+      </c>
+      <c r="W93" t="n">
+        <v>9.166186277412276</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.05212464589235128</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.9644246051601443</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>682891359</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10067934</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7255485</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-11487248</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-12020876</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J94" t="n">
+        <v>193914965</v>
+      </c>
+      <c r="K94" t="n">
+        <v>192909628</v>
+      </c>
+      <c r="L94" t="n">
+        <v>21386512</v>
+      </c>
+      <c r="M94" t="n">
+        <v>309283512</v>
+      </c>
+      <c r="N94" t="n">
+        <v>257852167</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4935704.081632653</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>115368547</v>
+      </c>
+      <c r="R94" t="n">
+        <v>23.37428360612695</v>
+      </c>
+      <c r="S94" t="n">
+        <v>63937202</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1005337</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.01062465486548937</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.06914856812670958</v>
+      </c>
+      <c r="W94" t="n">
+        <v>19.26065119219097</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.04983050847457627</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.262070765337482</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>286</v>
+      </c>
+      <c r="C95" t="n">
+        <v>448684621</v>
+      </c>
+      <c r="D95" t="n">
+        <v>21838756</v>
+      </c>
+      <c r="E95" t="n">
+        <v>22487461</v>
+      </c>
+      <c r="F95" t="n">
+        <v>22195243</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3238669</v>
+      </c>
+      <c r="H95" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>139365391</v>
+      </c>
+      <c r="K95" t="n">
+        <v>134178245</v>
+      </c>
+      <c r="L95" t="n">
+        <v>11333306</v>
+      </c>
+      <c r="M95" t="n">
+        <v>267216585</v>
+      </c>
+      <c r="N95" t="n">
+        <v>216689577</v>
+      </c>
+      <c r="O95" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="P95" t="n">
+        <v>754866.096005371</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>127851194</v>
+      </c>
+      <c r="R95" t="n">
+        <v>169.3693685231961</v>
+      </c>
+      <c r="S95" t="n">
+        <v>77324186</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5187146</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.05011863555715675</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.04241243484194666</v>
+      </c>
+      <c r="W95" t="n">
+        <v>6.381562713553831</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.1041608391608392</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.688617029712965</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="C96" t="n">
+        <v>116575329</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-556694</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3233240</v>
+      </c>
+      <c r="F96" t="n">
+        <v>157111</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2834014</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-14.43</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="J96" t="n">
+        <v>65896572</v>
+      </c>
+      <c r="K96" t="n">
+        <v>41767567</v>
+      </c>
+      <c r="L96" t="n">
+        <v>21748563</v>
+      </c>
+      <c r="M96" t="n">
+        <v>86342415</v>
+      </c>
+      <c r="N96" t="n">
+        <v>42378829</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2449424.242424242</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>20445843</v>
+      </c>
+      <c r="R96" t="n">
+        <v>8.347203659487079</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-23517743</v>
+      </c>
+      <c r="T96" t="n">
+        <v>24129005</v>
+      </c>
+      <c r="U96" t="n">
+        <v>-0.02773519944344313</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.2518873603431176</v>
+      </c>
+      <c r="W96" t="n">
+        <v>-118.3712632074353</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.1904761904761905</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.8302181524136715</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>100</v>
+      </c>
+      <c r="C97" t="n">
+        <v>27551871</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3858461</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3485810</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4243719</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-565856</v>
+      </c>
+      <c r="H97" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6214207</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5467462</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6332771</v>
+      </c>
+      <c r="M97" t="n">
+        <v>24024447</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13785343</v>
+      </c>
+      <c r="O97" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="P97" t="n">
+        <v>560419.61414791</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>17810240</v>
+      </c>
+      <c r="R97" t="n">
+        <v>31.78018675716691</v>
+      </c>
+      <c r="S97" t="n">
+        <v>7571136</v>
+      </c>
+      <c r="T97" t="n">
+        <v>746745</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.1265180865575336</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.2635969518882162</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.610540316462963</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.146614611301757</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>45797658</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1233921</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1554485</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1629386</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-715034</v>
+      </c>
+      <c r="H98" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10035489</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9844111</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4411796</v>
+      </c>
+      <c r="M98" t="n">
+        <v>30630747</v>
+      </c>
+      <c r="N98" t="n">
+        <v>24361064</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P98" t="n">
+        <v>626808.4677419355</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>20595258</v>
+      </c>
+      <c r="R98" t="n">
+        <v>32.85733850117563</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14325575</v>
+      </c>
+      <c r="T98" t="n">
+        <v>191378</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.03394245618411317</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.1440316163363564</v>
+      </c>
+      <c r="W98" t="n">
+        <v>8.13300770470719</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.09393939393939395</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.8034734766802678</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="C99" t="n">
+        <v>685446</v>
+      </c>
+      <c r="D99" t="n">
+        <v>90660</v>
+      </c>
+      <c r="E99" t="n">
+        <v>88600</v>
+      </c>
+      <c r="F99" t="n">
+        <v>109133</v>
+      </c>
+      <c r="G99" t="n">
+        <v>538</v>
+      </c>
+      <c r="H99" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="J99" t="n">
+        <v>311596</v>
+      </c>
+      <c r="K99" t="n">
+        <v>217801</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8159</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1092439</v>
+      </c>
+      <c r="N99" t="n">
+        <v>974535</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P99" t="n">
+        <v>47379.67914438502</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>780843</v>
+      </c>
+      <c r="R99" t="n">
+        <v>16.48054638826185</v>
+      </c>
+      <c r="S99" t="n">
+        <v>662939</v>
+      </c>
+      <c r="T99" t="n">
+        <v>93795</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.129258905880259</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.007468609231270579</v>
+      </c>
+      <c r="W99" t="n">
+        <v>3.436973306860799</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.1041782729805014</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.089162918335326</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C100" t="n">
+        <v>64243538</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3997205</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6937248</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14510985</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-8669135</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J100" t="n">
+        <v>89607318</v>
+      </c>
+      <c r="K100" t="n">
+        <v>41256434</v>
+      </c>
+      <c r="L100" t="n">
+        <v>70379773</v>
+      </c>
+      <c r="M100" t="n">
+        <v>189832321</v>
+      </c>
+      <c r="N100" t="n">
+        <v>48883424</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3594429.015544042</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>100225003</v>
+      </c>
+      <c r="R100" t="n">
+        <v>27.88342809569443</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-40723894</v>
+      </c>
+      <c r="T100" t="n">
+        <v>48350884</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.1079835920618195</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.3707470499715378</v>
+      </c>
+      <c r="W100" t="n">
+        <v>22.41749372373946</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.05490753911806544</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.260605398997823</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="C101" t="n">
+        <v>119454948</v>
+      </c>
+      <c r="D101" t="n">
+        <v>13073418</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9957560</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22851484</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-9793335</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J101" t="n">
+        <v>129687128</v>
+      </c>
+      <c r="K101" t="n">
+        <v>66985408</v>
+      </c>
+      <c r="L101" t="n">
+        <v>140870704</v>
+      </c>
+      <c r="M101" t="n">
+        <v>261430728</v>
+      </c>
+      <c r="N101" t="n">
+        <v>79724188</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4764382.775119618</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>131743600</v>
+      </c>
+      <c r="R101" t="n">
+        <v>27.65176649701332</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-49962940</v>
+      </c>
+      <c r="T101" t="n">
+        <v>62701720</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.0833582883481729</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.5388452424001207</v>
+      </c>
+      <c r="W101" t="n">
+        <v>9.919909850660325</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.06210995542347697</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.21692044534061</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="C102" t="n">
+        <v>28471772</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8435862</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6516802</v>
+      </c>
+      <c r="F102" t="n">
+        <v>28914497</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-33223372</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J102" t="n">
+        <v>632638758</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>13224427</v>
+      </c>
+      <c r="M102" t="n">
+        <v>788559333</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>10683281.96721311</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>155920575</v>
+      </c>
+      <c r="R102" t="n">
+        <v>14.59481978277075</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>0.2288864212596251</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.01677036393658408</v>
+      </c>
+      <c r="W102" t="n">
+        <v>74.99396718438496</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.04747081712062257</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.8804493780162658</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>367114663</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33403064</v>
+      </c>
+      <c r="E103" t="n">
+        <v>28982799</v>
+      </c>
+      <c r="F103" t="n">
+        <v>270579836</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-403872962</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3777983457</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>33744542</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4083256528</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="P103" t="n">
+        <v>9502557.049180329</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>305273071</v>
+      </c>
+      <c r="R103" t="n">
+        <v>32.12536051297185</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>0.07894753852422397</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.008264124913192327</v>
+      </c>
+      <c r="W103" t="n">
+        <v>113.1029014883186</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.1066433566433566</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.8902623828439732</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>134054590</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11295218</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10362589</v>
+      </c>
+      <c r="F104" t="n">
+        <v>64284201</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-143597741</v>
+      </c>
+      <c r="H104" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J104" t="n">
         <v>2216433844</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>134054590</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11295218</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10362589</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64284201</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-143597741</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="L104" t="n">
         <v>22345063</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M104" t="n">
         <v>2309650492</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O104" t="n">
         <v>1.16</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P104" t="n">
         <v>8933266.379310345</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q104" t="n">
         <v>93216648</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R104" t="n">
         <v>10.43477761011268</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="U104" t="n">
         <v>0.07730126212015567</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V104" t="n">
         <v>0.009674651241561097</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W104" t="n">
         <v>196.2276287186312</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X104" t="n">
         <v>0.1432098765432099</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y104" t="n">
         <v>0.7762503718478891</v>
       </c>
     </row>
